--- a/new protocol.xlsx
+++ b/new protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4CF85-7122-43F5-A320-75238673A058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE24AC6-51E1-4790-9168-3449EE05D362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,10 +159,10 @@
     <t>kind of user interaction that is required</t>
   </si>
   <si>
-    <t>Class Diagram</t>
-  </si>
-  <si>
     <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram + protocol</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E177" t="s">
         <v>20</v>
@@ -1334,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E178" t="s">
         <v>21</v>
@@ -1348,7 +1348,7 @@
         <v>40</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E179" t="s">
         <v>22</v>
@@ -1357,7 +1357,7 @@
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="D180" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E180" t="s">
         <v>23</v>

--- a/new protocol.xlsx
+++ b/new protocol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swift\Documents\GitHub\winter20-21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE24AC6-51E1-4790-9168-3449EE05D362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DE44A-ECB9-40F9-B89C-DD702894D90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>Class Diagram + protocol</t>
+  </si>
+  <si>
+    <t>Creating more scenarios to see the relationship between entities/system</t>
+  </si>
+  <si>
+    <t>Refinement of analysis models</t>
+  </si>
+  <si>
+    <t>Identify the state behavior of the system entities</t>
+  </si>
+  <si>
+    <t>Sequence Diagram and adding scenarios</t>
+  </si>
+  <si>
+    <t>state diagram and general form</t>
   </si>
 </sst>
 </file>
@@ -510,17 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E180"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="69.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1363,6 +1378,150 @@
         <v>23</v>
       </c>
     </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>18</v>
+      </c>
+      <c r="E207" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E208" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>3</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B211" s="1"/>
+      <c r="D211" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
